--- a/miniprogram/pages/猫咪档案.xlsx
+++ b/miniprogram/pages/猫咪档案.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11008"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1144F39D-8B2E-2943-9853-C2095E4692F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B8DAC8-F09E-1145-BAE9-8D8898C3DFE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24200" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1660" yWindow="500" windowWidth="24200" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="校内喵" sheetId="1" r:id="rId1"/>
@@ -369,6 +369,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>离世</t>
@@ -391,6 +392,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>失踪</t>
@@ -413,6 +415,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>许久未见</t>
@@ -435,6 +438,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>健康</t>
@@ -457,6 +461,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>不明</t>
@@ -498,6 +503,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>口炎</t>
@@ -507,6 +513,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>==归类到在校</t>
@@ -542,26 +549,26 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -584,7 +591,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -592,7 +599,7 @@
       <u/>
       <sz val="11"/>
       <color theme="11"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -612,14 +619,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -633,18 +640,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -876,7 +885,7 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -899,7 +908,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -908,124 +917,94 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="18" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="18" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1034,14 +1013,13 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1050,73 +1028,73 @@
     <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="19" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
-    <cellStyle name="20% - Accent2" xfId="1" builtinId="34"/>
-    <cellStyle name="Bad" xfId="18" builtinId="27"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
-    <cellStyle name="Neutral" xfId="19" builtinId="28"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="20% - 着色 2" xfId="1" builtinId="34"/>
+    <cellStyle name="差" xfId="18" builtinId="27"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="适中" xfId="19" builtinId="28"/>
+    <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="17" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1398,14 +1376,14 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S14" sqref="S14"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="8.83203125" style="1"/>
     <col min="2" max="2" width="8.83203125" style="2"/>
-    <col min="3" max="3" width="8.83203125" style="11"/>
+    <col min="3" max="3" width="8.83203125" style="3"/>
     <col min="4" max="4" width="15.6640625" style="3" customWidth="1"/>
     <col min="5" max="5" width="9.83203125" style="3" customWidth="1"/>
     <col min="6" max="6" width="8.83203125" style="3"/>
@@ -1425,7 +1403,7 @@
     <col min="20" max="20" width="18.83203125" style="3" customWidth="1"/>
     <col min="21" max="21" width="20.1640625" style="3" customWidth="1"/>
     <col min="22" max="23" width="17.6640625" style="3" customWidth="1"/>
-    <col min="24" max="24" width="15.5" style="13" customWidth="1"/>
+    <col min="24" max="24" width="15.5" style="12" customWidth="1"/>
     <col min="25" max="25" width="12.5" style="3" customWidth="1"/>
     <col min="26" max="26" width="8.83203125" style="3"/>
     <col min="27" max="27" width="13.5" style="3" customWidth="1"/>
@@ -1454,59 +1432,57 @@
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:29">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="73" t="s">
+      <c r="C3" s="58"/>
+      <c r="D3" s="2"/>
+      <c r="F3" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="74"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="63" t="s">
+      <c r="G3" s="55"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="64"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="18" t="s">
+      <c r="K3" s="60"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="19" t="s">
+      <c r="N3" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="14" t="s">
+      <c r="O3" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P3" s="20" t="s">
+      <c r="P3" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="14" t="s">
+      <c r="R3" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="S3" s="22">
+      <c r="S3" s="16">
         <v>6</v>
       </c>
-      <c r="T3" s="23" t="s">
+      <c r="T3" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U3" s="71" t="s">
+      <c r="U3" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="V3" s="14" t="s">
+      <c r="V3" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="W3" s="14"/>
-      <c r="X3" s="22">
+      <c r="W3" s="7"/>
+      <c r="X3" s="16">
         <v>0</v>
       </c>
-      <c r="Y3" s="24" t="s">
+      <c r="Y3" s="18" t="s">
         <v>66</v>
       </c>
       <c r="AA3" s="7" t="s">
@@ -1520,117 +1496,82 @@
       </c>
     </row>
     <row r="4" spans="1:29">
-      <c r="A4" s="25"/>
-      <c r="B4" s="26"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="27" t="s">
+      <c r="E4" s="1"/>
+      <c r="I4" s="5"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="O4" s="11"/>
-      <c r="P4" s="28" t="s">
+      <c r="P4" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="29">
+      <c r="S4" s="21">
         <v>5</v>
       </c>
-      <c r="T4" s="30" t="s">
+      <c r="T4" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="U4" s="72"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="31" t="s">
+      <c r="U4" s="53"/>
+      <c r="X4" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="Y4" s="32" t="s">
+      <c r="Y4" s="24" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="15" customHeight="1">
-      <c r="A5" s="25"/>
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="61" t="s">
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="63"/>
+      <c r="H5" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="33" t="s">
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="O5" s="11"/>
-      <c r="P5" s="34" t="s">
+      <c r="P5" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="29">
+      <c r="S5" s="21">
         <v>4</v>
       </c>
-      <c r="T5" s="30" t="s">
+      <c r="T5" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="U5" s="72"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="11"/>
+      <c r="U5" s="53"/>
+      <c r="X5" s="3"/>
     </row>
     <row r="6" spans="1:29">
-      <c r="A6" s="25"/>
-      <c r="B6" s="26"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="29">
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="S6" s="21">
         <v>3</v>
       </c>
-      <c r="T6" s="30" t="s">
+      <c r="T6" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="U6" s="72" t="s">
+      <c r="U6" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="V6" s="14" t="s">
+      <c r="V6" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="W6" s="14"/>
-      <c r="X6" s="22">
+      <c r="W6" s="7"/>
+      <c r="X6" s="16">
         <v>1</v>
       </c>
-      <c r="Y6" s="24" t="s">
+      <c r="Y6" s="18" t="s">
         <v>75</v>
       </c>
       <c r="AA6" s="7" t="s">
@@ -1644,626 +1585,532 @@
       </c>
     </row>
     <row r="7" spans="1:29">
-      <c r="A7" s="25"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="14" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="I7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="O7" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="P7" s="36" t="s">
+      <c r="P7" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="Q7" s="37" t="s">
+      <c r="Q7" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="R7" s="11"/>
-      <c r="S7" s="29">
+      <c r="S7" s="21">
         <v>2</v>
       </c>
-      <c r="T7" s="30" t="s">
+      <c r="T7" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="U7" s="72"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="29">
+      <c r="U7" s="53"/>
+      <c r="X7" s="21">
         <v>2</v>
       </c>
-      <c r="Y7" s="38" t="s">
+      <c r="Y7" s="29" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:29">
-      <c r="A8" s="25"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="39" t="s">
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="I8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="P8" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="Q8" s="58" t="s">
+      <c r="Q8" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="R8" s="11"/>
-      <c r="S8" s="29">
+      <c r="S8" s="21">
         <v>1</v>
       </c>
-      <c r="T8" s="30" t="s">
+      <c r="T8" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="U8" s="72" t="s">
+      <c r="U8" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="29">
+      <c r="X8" s="21">
         <v>3</v>
       </c>
-      <c r="Y8" s="38" t="s">
+      <c r="Y8" s="29" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:29">
-      <c r="A9" s="25"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="39" t="s">
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="I9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="P9" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="Q9" s="59" t="s">
+      <c r="Q9" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="R9" s="11"/>
-      <c r="S9" s="29">
+      <c r="S9" s="21">
         <v>0</v>
       </c>
-      <c r="T9" s="30" t="s">
+      <c r="T9" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="U9" s="72"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11"/>
-      <c r="X9" s="29">
+      <c r="U9" s="53"/>
+      <c r="X9" s="21">
         <v>4</v>
       </c>
-      <c r="Y9" s="38" t="s">
+      <c r="Y9" s="29" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="16">
-      <c r="A10" s="25"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="11" t="s">
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="K10" s="11"/>
-      <c r="L10" s="60" t="s">
+      <c r="L10" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="M10" s="17"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="69" t="s">
+      <c r="M10" s="4"/>
+      <c r="P10" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="Q10" s="40" t="s">
+      <c r="Q10" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="R10" s="11"/>
-      <c r="S10" s="31">
+      <c r="S10" s="23">
         <v>-1</v>
       </c>
-      <c r="T10" s="41" t="s">
+      <c r="T10" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="U10" s="42"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="11"/>
-      <c r="X10" s="31">
+      <c r="U10" s="33"/>
+      <c r="X10" s="23">
         <v>5</v>
       </c>
-      <c r="Y10" s="32" t="s">
+      <c r="Y10" s="24" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:29" ht="16">
-      <c r="A11" s="25"/>
-      <c r="B11" s="26"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="43" t="s">
+      <c r="F11" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="G11" s="43" t="s">
+      <c r="G11" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="H11" s="11"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="43" t="s">
+      <c r="J11" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="K11" s="11"/>
-      <c r="L11" s="60" t="s">
+      <c r="L11" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="M11" s="17"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="70"/>
-      <c r="Q11" s="44"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="43" t="s">
+      <c r="M11" s="4"/>
+      <c r="P11" s="51"/>
+      <c r="Q11" s="4"/>
+      <c r="U11" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="V11" s="11"/>
-      <c r="W11" s="11"/>
-      <c r="X11" s="11"/>
-      <c r="Y11" s="11"/>
+      <c r="X11" s="3"/>
     </row>
     <row r="12" spans="1:29">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I12" s="17" t="s">
+      <c r="I12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="J12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K12" s="11" t="s">
+      <c r="K12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L12" s="17" t="s">
+      <c r="L12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="17" t="s">
+      <c r="M12" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="N12" s="11" t="s">
+      <c r="N12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O12" s="11" t="s">
+      <c r="O12" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P12" s="17" t="s">
+      <c r="P12" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="Q12" s="30" t="s">
+      <c r="Q12" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="R12" s="11" t="s">
+      <c r="R12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S12" s="11" t="s">
+      <c r="S12" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="T12" s="11" t="s">
+      <c r="T12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="U12" s="11" t="s">
+      <c r="U12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="V12" s="11" t="s">
+      <c r="V12" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="W12" s="11" t="s">
+      <c r="W12" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="X12" s="11" t="s">
+      <c r="X12" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="Y12" s="11" t="s">
+      <c r="Y12" s="3" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:29" ht="15">
-      <c r="A13" s="25"/>
-      <c r="B13" s="26">
+      <c r="B13" s="2">
         <v>1</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="3">
         <v>0</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="F13" s="45" t="s">
+      <c r="F13" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="3">
         <v>1</v>
       </c>
-      <c r="H13" s="11"/>
-      <c r="I13" s="46">
+      <c r="I13" s="36">
         <v>0</v>
       </c>
-      <c r="J13" s="47" t="s">
+      <c r="J13" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="K13" s="11">
+      <c r="K13" s="3">
         <v>1</v>
       </c>
-      <c r="L13" s="48"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="49" t="s">
+      <c r="L13" s="38"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="O13" s="50">
+      <c r="O13" s="40">
         <v>5</v>
       </c>
-      <c r="P13" s="51" t="s">
+      <c r="P13" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="11" t="s">
+      <c r="Q13" s="11"/>
+      <c r="R13" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11" t="s">
+      <c r="U13" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="V13" s="11"/>
-      <c r="W13" s="11"/>
-      <c r="X13" s="11"/>
-      <c r="Y13" s="11"/>
+      <c r="X13" s="3"/>
     </row>
     <row r="14" spans="1:29" ht="15">
-      <c r="A14" s="25"/>
-      <c r="B14" s="26">
+      <c r="B14" s="2">
         <v>2</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="3">
         <v>3</v>
       </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="11">
         <v>3</v>
       </c>
-      <c r="H14" s="11"/>
-      <c r="I14" s="46">
+      <c r="I14" s="36">
         <v>0</v>
       </c>
-      <c r="J14" s="11" t="s">
+      <c r="J14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K14" s="3">
         <v>1</v>
       </c>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="49" t="s">
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="O14" s="12">
+      <c r="O14" s="11">
         <v>4</v>
       </c>
-      <c r="P14" s="52" t="s">
+      <c r="P14" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="11" t="s">
+      <c r="Q14" s="11"/>
+      <c r="R14" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="S14" s="11" t="s">
+      <c r="S14" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="T14" s="11"/>
-      <c r="U14" s="11"/>
-      <c r="V14" s="11"/>
-      <c r="W14" s="11"/>
-      <c r="X14" s="11">
+      <c r="X14" s="3">
         <v>1</v>
       </c>
-      <c r="Y14" s="11">
+      <c r="Y14" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="15">
-      <c r="A15" s="25"/>
-      <c r="B15" s="26">
+      <c r="B15" s="2">
         <v>3</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="3">
         <v>0</v>
       </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="3">
         <v>3</v>
       </c>
-      <c r="H15" s="11"/>
-      <c r="I15" s="35">
+      <c r="I15" s="6">
         <v>1</v>
       </c>
-      <c r="J15" s="11" t="s">
+      <c r="J15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K15" s="53">
+      <c r="K15" s="43">
         <v>1</v>
       </c>
-      <c r="L15" s="54" t="s">
+      <c r="L15" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="M15" s="17"/>
-      <c r="N15" s="11" t="s">
+      <c r="M15" s="4"/>
+      <c r="N15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O15" s="11">
+      <c r="O15" s="3">
         <v>1</v>
       </c>
-      <c r="P15" s="51" t="s">
+      <c r="P15" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="11" t="s">
+      <c r="Q15" s="11"/>
+      <c r="R15" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="11"/>
-      <c r="W15" s="11"/>
-      <c r="X15" s="11"/>
-      <c r="Y15" s="11"/>
+      <c r="X15" s="3"/>
     </row>
     <row r="16" spans="1:29" ht="15">
-      <c r="A16" s="25"/>
-      <c r="B16" s="26">
+      <c r="B16" s="2">
         <v>4</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="3">
         <v>0</v>
       </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="55" t="s">
+      <c r="F16" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="55">
+      <c r="G16" s="45">
         <v>1</v>
       </c>
-      <c r="H16" s="11"/>
-      <c r="I16" s="35">
+      <c r="I16" s="6">
         <v>1</v>
       </c>
-      <c r="J16" s="56" t="s">
+      <c r="J16" t="s">
         <v>63</v>
       </c>
-      <c r="K16" s="11">
+      <c r="K16" s="3">
         <v>1</v>
       </c>
-      <c r="L16" s="17" t="s">
+      <c r="L16" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="M16" s="17"/>
-      <c r="N16" s="49" t="s">
+      <c r="M16" s="4"/>
+      <c r="N16" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="O16" s="11">
+      <c r="O16" s="3">
         <v>6</v>
       </c>
-      <c r="P16" s="52" t="s">
+      <c r="P16" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="11" t="s">
+      <c r="Q16" s="11"/>
+      <c r="R16" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="57" t="s">
+      <c r="U16" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
-      <c r="X16" s="11"/>
-      <c r="Y16" s="11"/>
+      <c r="X16" s="3"/>
     </row>
-    <row r="17" spans="1:25" ht="15">
-      <c r="A17" s="25"/>
-      <c r="B17" s="26">
+    <row r="17" spans="2:24" ht="15">
+      <c r="B17" s="2">
         <v>5</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="3">
         <v>0</v>
       </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="3">
         <v>2</v>
       </c>
-      <c r="H17" s="11"/>
-      <c r="I17" s="35">
+      <c r="I17" s="6">
         <v>1</v>
       </c>
-      <c r="J17" s="11" t="s">
+      <c r="J17" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K17" s="11">
+      <c r="K17" s="3">
         <v>1</v>
       </c>
-      <c r="L17" s="17" t="s">
+      <c r="L17" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="M17" s="17" t="s">
+      <c r="M17" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="N17" s="11" t="s">
+      <c r="N17" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="O17" s="53">
+      <c r="O17" s="43">
         <v>4</v>
       </c>
-      <c r="P17" s="51" t="s">
+      <c r="P17" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="11" t="s">
+      <c r="Q17" s="11"/>
+      <c r="R17" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="57"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
-      <c r="X17" s="11">
+      <c r="U17" s="46"/>
+      <c r="X17" s="3">
         <v>2</v>
       </c>
-      <c r="Y17" s="11"/>
     </row>
-    <row r="18" spans="1:25" ht="15">
-      <c r="A18" s="25"/>
-      <c r="B18" s="26">
+    <row r="18" spans="2:24" ht="15">
+      <c r="B18" s="2">
         <v>6</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="3">
         <v>0</v>
       </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="11">
         <v>5</v>
       </c>
-      <c r="H18" s="11"/>
-      <c r="I18" s="35">
+      <c r="I18" s="6">
         <v>0</v>
       </c>
-      <c r="J18" s="11" t="s">
+      <c r="J18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K18" s="11">
+      <c r="K18" s="3">
         <v>1</v>
       </c>
-      <c r="L18" s="17" t="s">
+      <c r="L18" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="M18" s="17"/>
-      <c r="N18" s="49" t="s">
+      <c r="M18" s="4"/>
+      <c r="N18" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="O18" s="53">
+      <c r="O18" s="43">
         <v>1</v>
       </c>
-      <c r="P18" s="51" t="s">
+      <c r="P18" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="49" t="s">
+      <c r="Q18" s="11"/>
+      <c r="R18" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
-      <c r="X18" s="11"/>
-      <c r="Y18" s="11"/>
+      <c r="X18" s="3"/>
     </row>
-    <row r="19" spans="1:25" customFormat="1" ht="15"/>
-    <row r="20" spans="1:25" customFormat="1" ht="15"/>
-    <row r="21" spans="1:25" customFormat="1" ht="15"/>
-    <row r="22" spans="1:25" customFormat="1" ht="15"/>
-    <row r="23" spans="1:25" customFormat="1" ht="15"/>
-    <row r="24" spans="1:25" customFormat="1" ht="15"/>
-    <row r="25" spans="1:25" customFormat="1" ht="15"/>
-    <row r="26" spans="1:25" customFormat="1" ht="15"/>
-    <row r="27" spans="1:25" customFormat="1" ht="15"/>
-    <row r="28" spans="1:25" customFormat="1" ht="15"/>
-    <row r="29" spans="1:25" customFormat="1" ht="15"/>
-    <row r="30" spans="1:25" customFormat="1" ht="15"/>
-    <row r="31" spans="1:25" customFormat="1" ht="15"/>
-    <row r="32" spans="1:25" customFormat="1" ht="15"/>
+    <row r="19" spans="2:24" customFormat="1" ht="15">
+      <c r="B19" s="2"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="2:24" customFormat="1" ht="15"/>
+    <row r="21" spans="2:24" customFormat="1" ht="15"/>
+    <row r="22" spans="2:24" customFormat="1" ht="15"/>
+    <row r="23" spans="2:24" customFormat="1" ht="15"/>
+    <row r="24" spans="2:24" customFormat="1" ht="15"/>
+    <row r="25" spans="2:24" customFormat="1" ht="15"/>
+    <row r="26" spans="2:24" customFormat="1" ht="15"/>
+    <row r="27" spans="2:24" customFormat="1" ht="15"/>
+    <row r="28" spans="2:24" customFormat="1" ht="15"/>
+    <row r="29" spans="2:24" customFormat="1" ht="15"/>
+    <row r="30" spans="2:24" customFormat="1" ht="15"/>
+    <row r="31" spans="2:24" customFormat="1" ht="15"/>
+    <row r="32" spans="2:24" customFormat="1" ht="15"/>
     <row r="33" customFormat="1" ht="15"/>
     <row r="34" customFormat="1" ht="15"/>
     <row r="35" customFormat="1" ht="15"/>
@@ -2830,15 +2677,15 @@
   </sheetData>
   <autoFilter ref="A12:T112" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="9">
-    <mergeCell ref="U3:U5"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="F3:H3"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="H5:K5"/>
     <mergeCell ref="P10:P11"/>
+    <mergeCell ref="U3:U5"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
